--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -1,68 +1,424 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>Coca</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -11,27 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Coca</t>
   </si>
   <si>
-    <t>15</t>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -39,12 +48,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,10 +76,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -366,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,47 +386,69 @@
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Coca</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +457,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Coca</t>
   </si>
@@ -20,97 +20,438 @@
   </si>
   <si>
     <t>Pan</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Vino</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
     </font>
     <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60.0</v>
+      <c r="B3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Coca</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>Tang</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>40</v>
@@ -449,6 +455,17 @@
       </c>
       <c r="C6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Coca</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Agua</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Pan</t>
   </si>
   <si>
@@ -34,10 +37,13 @@
     <t>Fanta</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Vino</t>
   </si>
   <si>
-    <t>30</t>
+    <t>25</t>
   </si>
   <si>
     <t>27</t>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Pitusas</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,8 +418,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>20</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50</v>
@@ -415,7 +427,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20</v>
@@ -426,46 +438,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Coca</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Blem</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,7 +410,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="n">
@@ -489,6 +492,17 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -16,6 +16,9 @@
     <t>Coca</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Agua</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>Fanta</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Vino</t>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>40</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20</v>
@@ -441,24 +441,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -477,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -499,10 +499,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
